--- a/Bases_de_Dados_(2022-2023)/Germany DFB Pokal_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany DFB Pokal_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK57"/>
+  <dimension ref="A1:BK61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="AT5" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -6181,7 +6181,7 @@
         <v>0</v>
       </c>
       <c r="AT28" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AU28" t="n">
         <v>0</v>
@@ -7196,7 +7196,7 @@
         <v>0</v>
       </c>
       <c r="AT33" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AU33" t="n">
         <v>0</v>
@@ -8008,7 +8008,7 @@
         <v>0.5</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU37" t="n">
         <v>1.9</v>
@@ -9226,7 +9226,7 @@
         <v>1.5</v>
       </c>
       <c r="AT43" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AU43" t="n">
         <v>0</v>
@@ -9835,7 +9835,7 @@
         <v>1.5</v>
       </c>
       <c r="AT46" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AU46" t="n">
         <v>0</v>
@@ -10238,7 +10238,7 @@
         <v>3</v>
       </c>
       <c r="AS48" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AT48" t="n">
         <v>1.5</v>
@@ -10847,7 +10847,7 @@
         <v>3</v>
       </c>
       <c r="AS51" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AT51" t="n">
         <v>2</v>
@@ -11256,7 +11256,7 @@
         <v>2</v>
       </c>
       <c r="AT53" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AU53" t="n">
         <v>0</v>
@@ -11862,7 +11862,7 @@
         <v>3</v>
       </c>
       <c r="AS56" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT56" t="n">
         <v>2.33</v>
@@ -12068,7 +12068,7 @@
         <v>2</v>
       </c>
       <c r="AT57" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AU57" t="n">
         <v>0</v>
@@ -12120,6 +12120,818 @@
       </c>
       <c r="BK57" t="n">
         <v>21</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>5438101</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Germany DFB Pokal</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45020.54166666666</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Union Berlin</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>2</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>2</v>
+      </c>
+      <c r="L58" t="n">
+        <v>2</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>2</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>['11', '12']</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>6</v>
+      </c>
+      <c r="R58" t="n">
+        <v>6</v>
+      </c>
+      <c r="S58" t="n">
+        <v>12</v>
+      </c>
+      <c r="T58" t="n">
+        <v>3</v>
+      </c>
+      <c r="U58" t="n">
+        <v>2</v>
+      </c>
+      <c r="V58" t="n">
+        <v>4</v>
+      </c>
+      <c r="W58" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X58" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AW58" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AX58" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AY58" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ58" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BA58" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB58" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC58" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD58" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE58" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF58" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG58" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH58" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI58" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ58" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK58" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>5438102</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Germany DFB Pokal</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45020.65625</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Bayern München</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Freiburg</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
+      <c r="K59" t="n">
+        <v>2</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2</v>
+      </c>
+      <c r="N59" t="n">
+        <v>3</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>['27', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>9</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1</v>
+      </c>
+      <c r="S59" t="n">
+        <v>10</v>
+      </c>
+      <c r="T59" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U59" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="V59" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="W59" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X59" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AW59" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AX59" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AY59" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ59" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="BA59" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB59" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC59" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD59" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE59" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BF59" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG59" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH59" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI59" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ59" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>5438100</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Germany DFB Pokal</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45021.5625</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Nürnberg</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="n">
+        <v>1</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>2</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>7</v>
+      </c>
+      <c r="T60" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U60" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V60" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W60" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X60" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AW60" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="AX60" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AY60" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AZ60" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BA60" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB60" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC60" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD60" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BE60" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF60" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG60" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH60" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI60" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ60" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK60" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>5438099</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Germany DFB Pokal</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45021.65625</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="n">
+        <v>2</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>2</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>['22', '90+8']</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
+        <v>9</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1</v>
+      </c>
+      <c r="S61" t="n">
+        <v>10</v>
+      </c>
+      <c r="T61" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U61" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W61" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X61" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AW61" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AX61" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AY61" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ61" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BA61" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB61" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC61" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD61" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE61" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF61" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG61" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH61" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI61" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ61" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK61" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany DFB Pokal_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany DFB Pokal_20222023.xlsx
@@ -3398,7 +3398,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>2272446</v>
+        <v>2272460</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -3418,182 +3418,182 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Kickers Offenbach</t>
+          <t>Stuttgarter Kickers</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Fortuna Düsseldorf</t>
+          <t>Greuther Fürth</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>['9', '88']</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>6</v>
+      </c>
+      <c r="R15" t="n">
+        <v>7</v>
+      </c>
+      <c r="S15" t="n">
+        <v>13</v>
+      </c>
+      <c r="T15" t="n">
+        <v>11</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG15" t="n">
         <v>4</v>
       </c>
-      <c r="N15" t="n">
-        <v>5</v>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>['57']</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>['34', '54', '71', '80']</t>
-        </is>
-      </c>
-      <c r="Q15" t="n">
-        <v>2</v>
-      </c>
-      <c r="R15" t="n">
-        <v>6</v>
-      </c>
-      <c r="S15" t="n">
+      <c r="BH15" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI15" t="n">
         <v>8</v>
       </c>
-      <c r="T15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V15" t="n">
-        <v>2</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="X15" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>4.88</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="BE15" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="BF15" t="n">
-        <v>3</v>
-      </c>
-      <c r="BG15" t="n">
-        <v>7</v>
-      </c>
-      <c r="BH15" t="n">
-        <v>11</v>
-      </c>
-      <c r="BI15" t="n">
-        <v>3</v>
-      </c>
       <c r="BJ15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BK15" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
@@ -3601,7 +3601,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>2272460</v>
+        <v>2272446</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -3621,182 +3621,182 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Stuttgarter Kickers</t>
+          <t>Kickers Offenbach</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Greuther Fürth</t>
+          <t>Fortuna Düsseldorf</t>
         </is>
       </c>
       <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
         <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>1</v>
       </c>
       <c r="L16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>['9', '88']</t>
+          <t>['57']</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['34', '54', '71', '80']</t>
         </is>
       </c>
       <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" t="n">
         <v>6</v>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
+        <v>8</v>
+      </c>
+      <c r="T16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X16" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG16" t="n">
         <v>7</v>
       </c>
-      <c r="S16" t="n">
-        <v>13</v>
-      </c>
-      <c r="T16" t="n">
+      <c r="BH16" t="n">
         <v>11</v>
       </c>
-      <c r="U16" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="X16" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>6</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>2</v>
-      </c>
-      <c r="BE16" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="BF16" t="n">
-        <v>8</v>
-      </c>
-      <c r="BG16" t="n">
-        <v>4</v>
-      </c>
-      <c r="BH16" t="n">
-        <v>7</v>
-      </c>
       <c r="BI16" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BJ16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BK16" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -4210,7 +4210,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>2272432</v>
+        <v>2272449</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -4230,182 +4230,182 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>FV Engers 07</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Arminia Bielefeld</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>['54']</t>
+          <t>['33']</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>['9', '24', '50', '57', '71', '86', '90+1']</t>
+          <t>['82', '111']</t>
         </is>
       </c>
       <c r="Q19" t="n">
         <v>5</v>
       </c>
       <c r="R19" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S19" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T19" t="n">
-        <v>15</v>
+        <v>5.5</v>
       </c>
       <c r="U19" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AD19" t="n">
         <v>3.75</v>
       </c>
-      <c r="V19" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="W19" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="X19" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>10.11</v>
-      </c>
       <c r="AE19" t="n">
-        <v>1.09</v>
+        <v>1.65</v>
       </c>
       <c r="AF19" t="n">
         <v>1.01</v>
       </c>
       <c r="AG19" t="n">
-        <v>34</v>
+        <v>10.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>1.07</v>
+        <v>1.23</v>
       </c>
       <c r="AI19" t="n">
-        <v>8.5</v>
+        <v>3.9</v>
       </c>
       <c r="AJ19" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BA19" t="n">
         <v>1.25</v>
       </c>
-      <c r="AK19" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AL19" t="n">
+      <c r="BB19" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC19" t="n">
         <v>2.2</v>
       </c>
-      <c r="AM19" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>14</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>14</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>1.54</v>
-      </c>
       <c r="BD19" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="BE19" t="n">
-        <v>2.35</v>
+        <v>3.1</v>
       </c>
       <c r="BF19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG19" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="BH19" t="n">
         <v>7</v>
       </c>
       <c r="BI19" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BJ19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BK19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
@@ -4413,7 +4413,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>2272449</v>
+        <v>2272450</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -4433,119 +4433,119 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Oberachern</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Borussia M'gladbach</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N20" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>['33']</t>
+          <t>['61']</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>['82', '111']</t>
+          <t>['3', '22', '36', '37', '45', '45+3', '47', '59', '78']</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R20" t="n">
         <v>5</v>
       </c>
       <c r="S20" t="n">
+        <v>7</v>
+      </c>
+      <c r="T20" t="n">
+        <v>29</v>
+      </c>
+      <c r="U20" t="n">
+        <v>7</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="X20" t="n">
         <v>10</v>
       </c>
-      <c r="T20" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="V20" t="n">
+      <c r="Y20" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA20" t="n">
         <v>2.1</v>
       </c>
-      <c r="W20" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="X20" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AB20" t="n">
-        <v>1.11</v>
+        <v>1.67</v>
       </c>
       <c r="AC20" t="n">
-        <v>5.1</v>
+        <v>63.51</v>
       </c>
       <c r="AD20" t="n">
-        <v>3.75</v>
+        <v>24.47</v>
       </c>
       <c r="AE20" t="n">
-        <v>1.65</v>
+        <v>1.01</v>
       </c>
       <c r="AF20" t="n">
         <v>1.01</v>
       </c>
       <c r="AG20" t="n">
-        <v>10.5</v>
+        <v>34</v>
       </c>
       <c r="AH20" t="n">
-        <v>1.23</v>
+        <v>1.02</v>
       </c>
       <c r="AI20" t="n">
-        <v>3.9</v>
+        <v>20</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1.76</v>
+        <v>1.06</v>
       </c>
       <c r="AK20" t="n">
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="AL20" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="AM20" t="n">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="AN20" t="n">
-        <v>2.2</v>
+        <v>22</v>
       </c>
       <c r="AO20" t="n">
-        <v>1.18</v>
+        <v>1.01</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ20" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>0</v>
       </c>
       <c r="AT20" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4569,46 +4569,46 @@
         <v>0</v>
       </c>
       <c r="AX20" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="AY20" t="n">
-        <v>7.25</v>
+        <v>23</v>
       </c>
       <c r="AZ20" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="BA20" t="n">
-        <v>1.25</v>
+        <v>1.09</v>
       </c>
       <c r="BB20" t="n">
-        <v>1.51</v>
+        <v>1.2</v>
       </c>
       <c r="BC20" t="n">
-        <v>2.2</v>
+        <v>1.42</v>
       </c>
       <c r="BD20" t="n">
-        <v>2.3</v>
+        <v>1.73</v>
       </c>
       <c r="BE20" t="n">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="BF20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BG20" t="n">
+        <v>12</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ20" t="n">
         <v>7</v>
       </c>
-      <c r="BH20" t="n">
-        <v>7</v>
-      </c>
-      <c r="BI20" t="n">
-        <v>11</v>
-      </c>
-      <c r="BJ20" t="n">
-        <v>12</v>
-      </c>
       <c r="BK20" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
@@ -4616,7 +4616,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>2272450</v>
+        <v>2272453</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -4636,116 +4636,116 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Oberachern</t>
+          <t>BW Lohne</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Borussia M'gladbach</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="n">
+        <v>4</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>['52', '69', '81', '89']</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
         <v>6</v>
       </c>
-      <c r="K21" t="n">
+      <c r="S21" t="n">
         <v>6</v>
       </c>
-      <c r="L21" t="n">
+      <c r="T21" t="n">
+        <v>21</v>
+      </c>
+      <c r="U21" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="X21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>46</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AF21" t="n">
         <v>1</v>
       </c>
-      <c r="M21" t="n">
+      <c r="AG21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AI21" t="n">
         <v>9</v>
       </c>
-      <c r="N21" t="n">
-        <v>10</v>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>['61']</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>['3', '22', '36', '37', '45', '45+3', '47', '59', '78']</t>
-        </is>
-      </c>
-      <c r="Q21" t="n">
-        <v>2</v>
-      </c>
-      <c r="R21" t="n">
-        <v>5</v>
-      </c>
-      <c r="S21" t="n">
-        <v>7</v>
-      </c>
-      <c r="T21" t="n">
-        <v>29</v>
-      </c>
-      <c r="U21" t="n">
-        <v>7</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="X21" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>63.51</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>24.47</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>20</v>
-      </c>
       <c r="AJ21" t="n">
-        <v>1.06</v>
+        <v>1.23</v>
       </c>
       <c r="AK21" t="n">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="AL21" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="AM21" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AN21" t="n">
-        <v>22</v>
+        <v>8.75</v>
       </c>
       <c r="AO21" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="AP21" t="n">
         <v>1</v>
@@ -4772,13 +4772,13 @@
         <v>0</v>
       </c>
       <c r="AX21" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AY21" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AZ21" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="BA21" t="n">
         <v>1.09</v>
@@ -4787,31 +4787,31 @@
         <v>1.2</v>
       </c>
       <c r="BC21" t="n">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="BD21" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="BE21" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="BF21" t="n">
         <v>3</v>
       </c>
       <c r="BG21" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI21" t="n">
         <v>12</v>
       </c>
-      <c r="BH21" t="n">
-        <v>4</v>
-      </c>
-      <c r="BI21" t="n">
-        <v>14</v>
-      </c>
       <c r="BJ21" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BK21" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
@@ -4819,7 +4819,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>2272444</v>
+        <v>2272435</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -4839,31 +4839,31 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Rödinghausen</t>
+          <t>Schott Mainz</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Hannover 96</t>
         </is>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -4872,32 +4872,32 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>['115', '118']</t>
+          <t>['36', '42', '51']</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R22" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="S22" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="T22" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="U22" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="V22" t="n">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="W22" t="n">
         <v>1.17</v>
       </c>
       <c r="X22" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Y22" t="n">
         <v>1.8</v>
@@ -4912,40 +4912,40 @@
         <v>1.29</v>
       </c>
       <c r="AC22" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="AD22" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="AE22" t="n">
-        <v>1.12</v>
+        <v>1.03</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AG22" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AH22" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="AI22" t="n">
-        <v>7.5</v>
+        <v>8.75</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AK22" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AL22" t="n">
-        <v>1.95</v>
+        <v>3.75</v>
       </c>
       <c r="AM22" t="n">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="AN22" t="n">
-        <v>5.5</v>
+        <v>11.5</v>
       </c>
       <c r="AO22" t="n">
         <v>1.03</v>
@@ -4963,7 +4963,7 @@
         <v>0</v>
       </c>
       <c r="AT22" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU22" t="n">
         <v>0</v>
@@ -4975,46 +4975,46 @@
         <v>0</v>
       </c>
       <c r="AX22" t="n">
-        <v>10.25</v>
+        <v>20</v>
       </c>
       <c r="AY22" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AZ22" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="BA22" t="n">
-        <v>1.15</v>
+        <v>1.09</v>
       </c>
       <c r="BB22" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="BC22" t="n">
-        <v>2.1</v>
+        <v>1.34</v>
       </c>
       <c r="BD22" t="n">
-        <v>2.07</v>
+        <v>1.65</v>
       </c>
       <c r="BE22" t="n">
-        <v>2.73</v>
+        <v>2.02</v>
       </c>
       <c r="BF22" t="n">
         <v>3</v>
       </c>
       <c r="BG22" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BH22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BI22" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="BJ22" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK22" t="n">
         <v>8</v>
-      </c>
-      <c r="BK22" t="n">
-        <v>25</v>
       </c>
     </row>
     <row r="23">
@@ -5022,7 +5022,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>2272453</v>
+        <v>2272432</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -5042,119 +5042,119 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>BW Lohne</t>
+          <t>FV Engers 07</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Arminia Bielefeld</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N23" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['54']</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>['52', '69', '81', '89']</t>
+          <t>['9', '24', '50', '57', '71', '86', '90+1']</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S23" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="T23" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="U23" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="V23" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W23" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="X23" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z23" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AA23" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AB23" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ23" t="n">
         <v>1.25</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>46</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>1.23</v>
       </c>
       <c r="AK23" t="n">
         <v>3.5</v>
       </c>
       <c r="AL23" t="n">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="AM23" t="n">
-        <v>1.4</v>
+        <v>1.62</v>
       </c>
       <c r="AN23" t="n">
-        <v>8.75</v>
+        <v>7.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="AP23" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="AQ23" t="n">
         <v>0</v>
@@ -5178,46 +5178,46 @@
         <v>0</v>
       </c>
       <c r="AX23" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AY23" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AZ23" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="BA23" t="n">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="BB23" t="n">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="BC23" t="n">
-        <v>1.37</v>
+        <v>1.54</v>
       </c>
       <c r="BD23" t="n">
-        <v>1.62</v>
+        <v>1.9</v>
       </c>
       <c r="BE23" t="n">
-        <v>1.95</v>
+        <v>2.35</v>
       </c>
       <c r="BF23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG23" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BH23" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BI23" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="BJ23" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="BK23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
@@ -5225,7 +5225,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>2272435</v>
+        <v>2272444</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -5245,31 +5245,31 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Schott Mainz</t>
+          <t>Rödinghausen</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Hannover 96</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -5278,32 +5278,32 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>['36', '42', '51']</t>
+          <t>['115', '118']</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R24" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="S24" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="T24" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="U24" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="V24" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="W24" t="n">
         <v>1.17</v>
       </c>
       <c r="X24" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Y24" t="n">
         <v>1.8</v>
@@ -5318,40 +5318,40 @@
         <v>1.29</v>
       </c>
       <c r="AC24" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="AD24" t="n">
-        <v>15</v>
+        <v>8.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>1.03</v>
+        <v>1.12</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AG24" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AH24" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="AI24" t="n">
-        <v>8.75</v>
+        <v>7.5</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AK24" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AL24" t="n">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="AM24" t="n">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="AN24" t="n">
-        <v>11.5</v>
+        <v>5.5</v>
       </c>
       <c r="AO24" t="n">
         <v>1.03</v>
@@ -5369,7 +5369,7 @@
         <v>0</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU24" t="n">
         <v>0</v>
@@ -5381,46 +5381,46 @@
         <v>0</v>
       </c>
       <c r="AX24" t="n">
-        <v>20</v>
+        <v>10.25</v>
       </c>
       <c r="AY24" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AZ24" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="BA24" t="n">
-        <v>1.09</v>
+        <v>1.15</v>
       </c>
       <c r="BB24" t="n">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="BC24" t="n">
-        <v>1.34</v>
+        <v>2.1</v>
       </c>
       <c r="BD24" t="n">
-        <v>1.65</v>
+        <v>2.07</v>
       </c>
       <c r="BE24" t="n">
-        <v>2.02</v>
+        <v>2.73</v>
       </c>
       <c r="BF24" t="n">
         <v>3</v>
       </c>
       <c r="BG24" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH24" t="n">
         <v>5</v>
       </c>
-      <c r="BH24" t="n">
-        <v>3</v>
-      </c>
       <c r="BI24" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="BJ24" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BK24" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
@@ -5428,7 +5428,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>2272452</v>
+        <v>2272447</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -5448,59 +5448,59 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Waldhof Mannheim</t>
+          <t>Eintracht Braunschweig</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>Hertha BSC</t>
         </is>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['63', '66', '91', '118']</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['10', '42', '103', '106']</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="R25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S25" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="T25" t="n">
-        <v>2.88</v>
+        <v>4.33</v>
       </c>
       <c r="U25" t="n">
         <v>2.25</v>
       </c>
       <c r="V25" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="W25" t="n">
         <v>1.36</v>
@@ -5509,10 +5509,10 @@
         <v>3</v>
       </c>
       <c r="Y25" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Z25" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AA25" t="n">
         <v>7</v>
@@ -5521,46 +5521,46 @@
         <v>1.1</v>
       </c>
       <c r="AC25" t="n">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="AD25" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AE25" t="n">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AG25" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH25" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP25" t="n">
         <v>1.23</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>1.53</v>
       </c>
       <c r="AQ25" t="n">
         <v>0</v>
@@ -5584,46 +5584,46 @@
         <v>0</v>
       </c>
       <c r="AX25" t="n">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="AY25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ25" t="n">
-        <v>2.25</v>
+        <v>1.41</v>
       </c>
       <c r="BA25" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="BB25" t="n">
         <v>1.31</v>
       </c>
       <c r="BC25" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="BD25" t="n">
         <v>2</v>
       </c>
       <c r="BE25" t="n">
-        <v>2.66</v>
+        <v>2.5</v>
       </c>
       <c r="BF25" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BG25" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="BH25" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BI25" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BJ25" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="BK25" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26">
@@ -5631,7 +5631,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>2272447</v>
+        <v>2272452</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -5651,59 +5651,59 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Eintracht Braunschweig</t>
+          <t>Waldhof Mannheim</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Hertha BSC</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
         <v>4</v>
       </c>
-      <c r="M26" t="n">
-        <v>4</v>
-      </c>
-      <c r="N26" t="n">
-        <v>8</v>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>['63', '66', '91', '118']</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>['10', '42', '103', '106']</t>
-        </is>
-      </c>
-      <c r="Q26" t="n">
-        <v>9</v>
-      </c>
       <c r="R26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S26" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="T26" t="n">
-        <v>4.33</v>
+        <v>2.88</v>
       </c>
       <c r="U26" t="n">
         <v>2.25</v>
       </c>
       <c r="V26" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="W26" t="n">
         <v>1.36</v>
@@ -5712,10 +5712,10 @@
         <v>3</v>
       </c>
       <c r="Y26" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Z26" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AA26" t="n">
         <v>7</v>
@@ -5724,46 +5724,46 @@
         <v>1.1</v>
       </c>
       <c r="AC26" t="n">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="AD26" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AE26" t="n">
-        <v>1.85</v>
+        <v>3</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AG26" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AI26" t="n">
-        <v>3.8</v>
+        <v>4.15</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AK26" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AL26" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AM26" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AN26" t="n">
-        <v>1.97</v>
+        <v>1.47</v>
       </c>
       <c r="AO26" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.23</v>
+        <v>1.53</v>
       </c>
       <c r="AQ26" t="n">
         <v>0</v>
@@ -5787,46 +5787,46 @@
         <v>0</v>
       </c>
       <c r="AX26" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="AY26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ26" t="n">
-        <v>1.41</v>
+        <v>2.25</v>
       </c>
       <c r="BA26" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="BB26" t="n">
         <v>1.31</v>
       </c>
       <c r="BC26" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="BD26" t="n">
         <v>2</v>
       </c>
       <c r="BE26" t="n">
-        <v>2.5</v>
+        <v>2.66</v>
       </c>
       <c r="BF26" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BG26" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ26" t="n">
         <v>14</v>
       </c>
-      <c r="BH26" t="n">
-        <v>11</v>
-      </c>
-      <c r="BI26" t="n">
-        <v>12</v>
-      </c>
-      <c r="BJ26" t="n">
-        <v>19</v>
-      </c>
       <c r="BK26" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
@@ -7255,7 +7255,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>3850323</v>
+        <v>3850316</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -7275,182 +7275,182 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>VfB Lübeck</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Mainz 05</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K34" t="n">
         <v>2</v>
       </c>
       <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="n">
+        <v>3</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>['16', '43', '88']</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
         <v>4</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>4</v>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>['33', '36', '69', '81']</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="Q34" t="n">
-        <v>3</v>
-      </c>
       <c r="R34" t="n">
+        <v>9</v>
+      </c>
+      <c r="S34" t="n">
+        <v>13</v>
+      </c>
+      <c r="T34" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U34" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X34" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC34" t="n">
         <v>7</v>
       </c>
-      <c r="S34" t="n">
+      <c r="AD34" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE34" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF34" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG34" t="n">
         <v>10</v>
-      </c>
-      <c r="T34" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="U34" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V34" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="W34" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="X34" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AP34" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AQ34" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR34" t="n">
-        <v>3</v>
-      </c>
-      <c r="AS34" t="n">
-        <v>3</v>
-      </c>
-      <c r="AT34" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AU34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV34" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="AW34" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="AX34" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AY34" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ34" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="BA34" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="BB34" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="BC34" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="BD34" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="BE34" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="BF34" t="n">
-        <v>8</v>
-      </c>
-      <c r="BG34" t="n">
-        <v>2</v>
       </c>
       <c r="BH34" t="n">
         <v>6</v>
       </c>
       <c r="BI34" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BJ34" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="BK34" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35">
@@ -7458,7 +7458,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>3850316</v>
+        <v>3850317</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -7478,12 +7478,12 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>VfB Lübeck</t>
+          <t>Stuttgarter Kickers</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Mainz 05</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -7499,10 +7499,10 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -7511,83 +7511,83 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>['16', '43', '88']</t>
+          <t>['11', '18']</t>
         </is>
       </c>
       <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>2</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3</v>
+      </c>
+      <c r="T35" t="n">
+        <v>17</v>
+      </c>
+      <c r="U35" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X35" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AK35" t="n">
         <v>4</v>
       </c>
-      <c r="R35" t="n">
-        <v>9</v>
-      </c>
-      <c r="S35" t="n">
-        <v>13</v>
-      </c>
-      <c r="T35" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="U35" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="V35" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W35" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="X35" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>2.7</v>
-      </c>
       <c r="AL35" t="n">
-        <v>1.67</v>
+        <v>2.25</v>
       </c>
       <c r="AM35" t="n">
-        <v>2.1</v>
+        <v>1.57</v>
       </c>
       <c r="AN35" t="n">
-        <v>3.6</v>
+        <v>8.5</v>
       </c>
       <c r="AO35" t="n">
-        <v>1.09</v>
+        <v>1.02</v>
       </c>
       <c r="AP35" t="n">
         <v>1.01</v>
@@ -7602,58 +7602,58 @@
         <v>1.5</v>
       </c>
       <c r="AT35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU35" t="n">
-        <v>1.43</v>
+        <v>1.91</v>
       </c>
       <c r="AV35" t="n">
-        <v>2.77</v>
+        <v>2.16</v>
       </c>
       <c r="AW35" t="n">
-        <v>4.2</v>
+        <v>4.07</v>
       </c>
       <c r="AX35" t="n">
-        <v>9.300000000000001</v>
+        <v>20</v>
       </c>
       <c r="AY35" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AZ35" t="n">
-        <v>1.11</v>
+        <v>1.02</v>
       </c>
       <c r="BA35" t="n">
-        <v>1.25</v>
+        <v>1.12</v>
       </c>
       <c r="BB35" t="n">
-        <v>1.41</v>
+        <v>1.26</v>
       </c>
       <c r="BC35" t="n">
-        <v>2.1</v>
+        <v>1.39</v>
       </c>
       <c r="BD35" t="n">
-        <v>2.23</v>
+        <v>1.73</v>
       </c>
       <c r="BE35" t="n">
-        <v>3</v>
+        <v>2.17</v>
       </c>
       <c r="BF35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG35" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BH35" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI35" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ35" t="n">
         <v>6</v>
       </c>
-      <c r="BI35" t="n">
-        <v>11</v>
-      </c>
-      <c r="BJ35" t="n">
-        <v>9</v>
-      </c>
       <c r="BK35" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
@@ -7661,7 +7661,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>3850317</v>
+        <v>3850319</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -7681,31 +7681,31 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Stuttgarter Kickers</t>
+          <t>Waldhof Mannheim</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Nürnberg</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -7714,131 +7714,131 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>['11', '18']</t>
+          <t>['62']</t>
         </is>
       </c>
       <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>2</v>
+      </c>
+      <c r="S36" t="n">
+        <v>7</v>
+      </c>
+      <c r="T36" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U36" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V36" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X36" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ36" t="n">
         <v>1</v>
       </c>
-      <c r="R36" t="n">
-        <v>2</v>
-      </c>
-      <c r="S36" t="n">
-        <v>3</v>
-      </c>
-      <c r="T36" t="n">
-        <v>17</v>
-      </c>
-      <c r="U36" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="V36" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="W36" t="n">
+      <c r="AR36" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BA36" t="n">
         <v>1.2</v>
       </c>
-      <c r="X36" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>29</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>7</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>4</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AP36" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AQ36" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR36" t="n">
-        <v>3</v>
-      </c>
-      <c r="AS36" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AT36" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU36" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AV36" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="AW36" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="AX36" t="n">
-        <v>20</v>
-      </c>
-      <c r="AY36" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ36" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="BA36" t="n">
-        <v>1.12</v>
-      </c>
       <c r="BB36" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="BC36" t="n">
-        <v>1.39</v>
+        <v>1.83</v>
       </c>
       <c r="BD36" t="n">
-        <v>1.73</v>
+        <v>2.03</v>
       </c>
       <c r="BE36" t="n">
-        <v>2.17</v>
+        <v>2.62</v>
       </c>
       <c r="BF36" t="n">
         <v>2</v>
@@ -7847,16 +7847,16 @@
         <v>5</v>
       </c>
       <c r="BH36" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BI36" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BJ36" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BK36" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37">
@@ -7864,7 +7864,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>3850319</v>
+        <v>3850323</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -7884,182 +7884,182 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Waldhof Mannheim</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Nürnberg</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
+          <t>['33', '36', '69', '81']</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>['62']</t>
-        </is>
-      </c>
       <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>7</v>
+      </c>
+      <c r="S37" t="n">
+        <v>10</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U37" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V37" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X37" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA37" t="n">
         <v>5</v>
       </c>
-      <c r="R37" t="n">
-        <v>2</v>
-      </c>
-      <c r="S37" t="n">
-        <v>7</v>
-      </c>
-      <c r="T37" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U37" t="n">
+      <c r="AB37" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM37" t="n">
         <v>2.2</v>
       </c>
-      <c r="V37" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="W37" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="X37" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>2</v>
-      </c>
       <c r="AN37" t="n">
-        <v>1.63</v>
+        <v>1.02</v>
       </c>
       <c r="AO37" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.36</v>
+        <v>3.1</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR37" t="n">
         <v>3</v>
       </c>
       <c r="AS37" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AU37" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="AV37" t="n">
-        <v>1.72</v>
+        <v>4.24</v>
       </c>
       <c r="AW37" t="n">
-        <v>3.62</v>
+        <v>4.24</v>
       </c>
       <c r="AX37" t="n">
-        <v>2.83</v>
+        <v>1.18</v>
       </c>
       <c r="AY37" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AZ37" t="n">
-        <v>1.67</v>
+        <v>6.9</v>
       </c>
       <c r="BA37" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="BB37" t="n">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="BC37" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="BD37" t="n">
-        <v>2.03</v>
+        <v>2.15</v>
       </c>
       <c r="BE37" t="n">
-        <v>2.62</v>
+        <v>2.85</v>
       </c>
       <c r="BF37" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BG37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BH37" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BI37" t="n">
         <v>6</v>
       </c>
       <c r="BJ37" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BK37" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
@@ -8067,7 +8067,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>3850331</v>
+        <v>3850318</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -8087,86 +8087,86 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Darmstadt 98</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Borussia M'gladbach</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
       <c r="N38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>['23', '79']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>['48']</t>
+          <t>['85']</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R38" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S38" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="T38" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U38" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="V38" t="n">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
       <c r="W38" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="X38" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD38" t="n">
         <v>3.4</v>
       </c>
-      <c r="Y38" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>3.75</v>
-      </c>
       <c r="AE38" t="n">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="AF38" t="n">
         <v>1.03</v>
@@ -8175,28 +8175,28 @@
         <v>11</v>
       </c>
       <c r="AH38" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="AI38" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="AJ38" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="AK38" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="AL38" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AM38" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AN38" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AO38" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AP38" t="n">
         <v>1.3</v>
@@ -8208,61 +8208,61 @@
         <v>3</v>
       </c>
       <c r="AS38" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU38" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AV38" t="n">
-        <v>3.16</v>
+        <v>2.12</v>
       </c>
       <c r="AW38" t="n">
-        <v>3.16</v>
+        <v>3.93</v>
       </c>
       <c r="AX38" t="n">
-        <v>2.74</v>
+        <v>3.8</v>
       </c>
       <c r="AY38" t="n">
-        <v>8.1</v>
+        <v>8.9</v>
       </c>
       <c r="AZ38" t="n">
-        <v>1.72</v>
+        <v>1.44</v>
       </c>
       <c r="BA38" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="BB38" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="BC38" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="BD38" t="n">
-        <v>2.47</v>
+        <v>2.32</v>
       </c>
       <c r="BE38" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="BF38" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BG38" t="n">
         <v>5</v>
       </c>
       <c r="BH38" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI38" t="n">
         <v>8</v>
       </c>
-      <c r="BI38" t="n">
-        <v>4</v>
-      </c>
       <c r="BJ38" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="BK38" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39">
@@ -8270,7 +8270,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>3850318</v>
+        <v>3850320</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -8290,182 +8290,182 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Eintracht Braunschweig</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['40']</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>['85']</t>
+          <t>['8', '65']</t>
         </is>
       </c>
       <c r="Q39" t="n">
+        <v>11</v>
+      </c>
+      <c r="R39" t="n">
         <v>6</v>
       </c>
-      <c r="R39" t="n">
-        <v>5</v>
-      </c>
       <c r="S39" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="T39" t="n">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="U39" t="n">
         <v>2.3</v>
       </c>
       <c r="V39" t="n">
-        <v>2.88</v>
+        <v>2.3</v>
       </c>
       <c r="W39" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X39" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Y39" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="Z39" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AA39" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB39" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AC39" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="AD39" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="AE39" t="n">
-        <v>2.38</v>
+        <v>1.75</v>
       </c>
       <c r="AF39" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AG39" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH39" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AO39" t="n">
         <v>1.2</v>
       </c>
-      <c r="AI39" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AK39" t="n">
+      <c r="AP39" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AV39" t="n">
         <v>2.2</v>
       </c>
-      <c r="AL39" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AP39" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AQ39" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR39" t="n">
-        <v>3</v>
-      </c>
-      <c r="AS39" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AT39" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU39" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="AV39" t="n">
-        <v>2.12</v>
-      </c>
       <c r="AW39" t="n">
-        <v>3.93</v>
+        <v>4.42</v>
       </c>
       <c r="AX39" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="AY39" t="n">
-        <v>8.9</v>
+        <v>9.5</v>
       </c>
       <c r="AZ39" t="n">
         <v>1.44</v>
       </c>
       <c r="BA39" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="BB39" t="n">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="BC39" t="n">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="BD39" t="n">
-        <v>2.32</v>
+        <v>1.96</v>
       </c>
       <c r="BE39" t="n">
-        <v>3.1</v>
+        <v>2.52</v>
       </c>
       <c r="BF39" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BG39" t="n">
         <v>5</v>
       </c>
       <c r="BH39" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="BI39" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="BJ39" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="BK39" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40">
@@ -8473,7 +8473,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>3850320</v>
+        <v>3850331</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -8493,182 +8493,182 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Eintracht Braunschweig</t>
+          <t>Darmstadt 98</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Borussia M'gladbach</t>
         </is>
       </c>
       <c r="I40" t="n">
         <v>1</v>
       </c>
       <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>1</v>
       </c>
-      <c r="K40" t="n">
-        <v>2</v>
-      </c>
       <c r="L40" t="n">
+        <v>2</v>
+      </c>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
-      <c r="M40" t="n">
-        <v>2</v>
-      </c>
       <c r="N40" t="n">
         <v>3</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>['40']</t>
+          <t>['23', '79']</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>['8', '65']</t>
+          <t>['48']</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="R40" t="n">
         <v>6</v>
       </c>
       <c r="S40" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="T40" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U40" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X40" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI40" t="n">
         <v>4.5</v>
       </c>
-      <c r="U40" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="V40" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="W40" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X40" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Y40" t="n">
+      <c r="AJ40" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM40" t="n">
         <v>2.5</v>
       </c>
-      <c r="Z40" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>4</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>2.1</v>
-      </c>
       <c r="AN40" t="n">
-        <v>2.15</v>
+        <v>1.83</v>
       </c>
       <c r="AO40" t="n">
         <v>1.2</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR40" t="n">
         <v>3</v>
       </c>
       <c r="AS40" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AT40" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU40" t="n">
-        <v>2.22</v>
+        <v>0</v>
       </c>
       <c r="AV40" t="n">
-        <v>2.2</v>
+        <v>3.16</v>
       </c>
       <c r="AW40" t="n">
-        <v>4.42</v>
+        <v>3.16</v>
       </c>
       <c r="AX40" t="n">
-        <v>3.7</v>
+        <v>2.74</v>
       </c>
       <c r="AY40" t="n">
-        <v>9.5</v>
+        <v>8.1</v>
       </c>
       <c r="AZ40" t="n">
-        <v>1.44</v>
+        <v>1.72</v>
       </c>
       <c r="BA40" t="n">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="BB40" t="n">
-        <v>1.3</v>
+        <v>1.52</v>
       </c>
       <c r="BC40" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="BD40" t="n">
-        <v>1.96</v>
+        <v>2.47</v>
       </c>
       <c r="BE40" t="n">
-        <v>2.52</v>
+        <v>3</v>
       </c>
       <c r="BF40" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BG40" t="n">
         <v>5</v>
       </c>
       <c r="BH40" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI40" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ40" t="n">
         <v>16</v>
       </c>
-      <c r="BI40" t="n">
-        <v>16</v>
-      </c>
-      <c r="BJ40" t="n">
-        <v>22</v>
-      </c>
       <c r="BK40" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41">
@@ -8879,7 +8879,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>3850328</v>
+        <v>3850321</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -8899,182 +8899,182 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Hannover 96</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Borussia Dortmund</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>2</v>
       </c>
       <c r="N42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>['22', '42']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>['65', '84']</t>
+          <t>['11', '71']</t>
         </is>
       </c>
       <c r="Q42" t="n">
         <v>7</v>
       </c>
       <c r="R42" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S42" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="T42" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U42" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V42" t="n">
-        <v>2.88</v>
+        <v>1.83</v>
       </c>
       <c r="W42" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="X42" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Y42" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Z42" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AA42" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="AB42" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="AC42" t="n">
-        <v>2.7</v>
+        <v>6.5</v>
       </c>
       <c r="AD42" t="n">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="AE42" t="n">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="AF42" t="n">
         <v>1.02</v>
       </c>
       <c r="AG42" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH42" t="n">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="AI42" t="n">
-        <v>5.73</v>
+        <v>5.5</v>
       </c>
       <c r="AJ42" t="n">
-        <v>1.68</v>
+        <v>1.45</v>
       </c>
       <c r="AK42" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AY42" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AZ42" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BA42" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD42" t="n">
         <v>2.07</v>
       </c>
-      <c r="AL42" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AM42" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AO42" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AP42" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AQ42" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR42" t="n">
-        <v>3</v>
-      </c>
-      <c r="AS42" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AT42" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV42" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AW42" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AX42" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="AY42" t="n">
+      <c r="BE42" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF42" t="n">
         <v>8</v>
       </c>
-      <c r="AZ42" t="n">
-        <v>2</v>
-      </c>
-      <c r="BA42" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="BB42" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="BC42" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="BD42" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="BE42" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="BF42" t="n">
-        <v>10</v>
-      </c>
       <c r="BG42" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BH42" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BI42" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BJ42" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="BK42" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43">
@@ -9082,7 +9082,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>3850321</v>
+        <v>3850322</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -9102,12 +9102,12 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Hannover 96</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Borussia Dortmund</t>
+          <t>St. Pauli</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -9120,164 +9120,164 @@
         <v>1</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['90+3', '119']</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>['11', '71']</t>
+          <t>['42']</t>
         </is>
       </c>
       <c r="Q43" t="n">
+        <v>8</v>
+      </c>
+      <c r="R43" t="n">
+        <v>2</v>
+      </c>
+      <c r="S43" t="n">
+        <v>10</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U43" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V43" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X43" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AE43" t="n">
         <v>7</v>
       </c>
-      <c r="R43" t="n">
+      <c r="AF43" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AX43" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ43" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="BA43" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BE43" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF43" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG43" t="n">
         <v>5</v>
       </c>
-      <c r="S43" t="n">
-        <v>12</v>
-      </c>
-      <c r="T43" t="n">
-        <v>6</v>
-      </c>
-      <c r="U43" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="V43" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W43" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="X43" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AO43" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AP43" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AQ43" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR43" t="n">
-        <v>3</v>
-      </c>
-      <c r="AS43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AT43" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV43" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="AW43" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="AX43" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="AY43" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AZ43" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="BA43" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="BB43" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="BC43" t="n">
-        <v>2</v>
-      </c>
-      <c r="BD43" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="BE43" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="BF43" t="n">
-        <v>8</v>
-      </c>
-      <c r="BG43" t="n">
-        <v>8</v>
-      </c>
       <c r="BH43" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="BI43" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BJ43" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="BK43" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44">
@@ -9285,7 +9285,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>3850322</v>
+        <v>3850325</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -9305,104 +9305,104 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Sandhausen</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>St. Pauli</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L44" t="n">
         <v>2</v>
       </c>
       <c r="M44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>['90+3', '119']</t>
+          <t>['8', '44']</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>['42']</t>
+          <t>['58', '72']</t>
         </is>
       </c>
       <c r="Q44" t="n">
+        <v>2</v>
+      </c>
+      <c r="R44" t="n">
+        <v>6</v>
+      </c>
+      <c r="S44" t="n">
         <v>8</v>
       </c>
-      <c r="R44" t="n">
-        <v>2</v>
-      </c>
-      <c r="S44" t="n">
-        <v>10</v>
-      </c>
       <c r="T44" t="n">
-        <v>1.83</v>
+        <v>3.75</v>
       </c>
       <c r="U44" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V44" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W44" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y44" t="n">
         <v>2.63</v>
       </c>
-      <c r="V44" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="W44" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="X44" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>2.25</v>
-      </c>
       <c r="Z44" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AA44" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="AB44" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="AC44" t="n">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="AD44" t="n">
-        <v>4.6</v>
+        <v>3.4</v>
       </c>
       <c r="AE44" t="n">
-        <v>7</v>
+        <v>2.15</v>
       </c>
       <c r="AF44" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AG44" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AH44" t="n">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="AI44" t="n">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="AJ44" t="n">
-        <v>1.54</v>
+        <v>1.78</v>
       </c>
       <c r="AK44" t="n">
-        <v>2.31</v>
+        <v>2</v>
       </c>
       <c r="AL44" t="n">
         <v>1.7</v>
@@ -9411,13 +9411,13 @@
         <v>2.05</v>
       </c>
       <c r="AN44" t="n">
-        <v>1.06</v>
+        <v>1.66</v>
       </c>
       <c r="AO44" t="n">
-        <v>1.12</v>
+        <v>1.25</v>
       </c>
       <c r="AP44" t="n">
-        <v>2.8</v>
+        <v>1.35</v>
       </c>
       <c r="AQ44" t="n">
         <v>3</v>
@@ -9426,61 +9426,61 @@
         <v>3</v>
       </c>
       <c r="AS44" t="n">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU44" t="n">
         <v>0</v>
       </c>
       <c r="AV44" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AX44" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AY44" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ44" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BA44" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BE44" t="n">
         <v>2.52</v>
       </c>
-      <c r="AW44" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="AX44" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AY44" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AZ44" t="n">
-        <v>4.98</v>
-      </c>
-      <c r="BA44" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="BB44" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="BC44" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="BD44" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="BE44" t="n">
-        <v>3.2</v>
-      </c>
       <c r="BF44" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BG44" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BH44" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI44" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ44" t="n">
         <v>17</v>
       </c>
-      <c r="BI44" t="n">
-        <v>9</v>
-      </c>
-      <c r="BJ44" t="n">
-        <v>24</v>
-      </c>
       <c r="BK44" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45">
@@ -9488,7 +9488,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>3850325</v>
+        <v>3850328</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -9508,12 +9508,12 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Sandhausen</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -9536,91 +9536,91 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>['8', '44']</t>
+          <t>['22', '42']</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>['58', '72']</t>
+          <t>['65', '84']</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="R45" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S45" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="T45" t="n">
+        <v>3</v>
+      </c>
+      <c r="U45" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X45" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD45" t="n">
         <v>3.75</v>
       </c>
-      <c r="U45" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V45" t="n">
+      <c r="AE45" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AM45" t="n">
         <v>2.75</v>
       </c>
-      <c r="W45" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="X45" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AM45" t="n">
-        <v>2.05</v>
-      </c>
       <c r="AN45" t="n">
-        <v>1.66</v>
+        <v>1.55</v>
       </c>
       <c r="AO45" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="AQ45" t="n">
         <v>3</v>
@@ -9638,52 +9638,52 @@
         <v>0</v>
       </c>
       <c r="AV45" t="n">
-        <v>2.93</v>
+        <v>1.55</v>
       </c>
       <c r="AW45" t="n">
-        <v>2.93</v>
+        <v>1.55</v>
       </c>
       <c r="AX45" t="n">
-        <v>3.08</v>
+        <v>2.22</v>
       </c>
       <c r="AY45" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="AZ45" t="n">
-        <v>1.59</v>
+        <v>2</v>
       </c>
       <c r="BA45" t="n">
         <v>1.2</v>
       </c>
       <c r="BB45" t="n">
-        <v>1.3</v>
+        <v>1.49</v>
       </c>
       <c r="BC45" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="BD45" t="n">
-        <v>1.96</v>
+        <v>2.37</v>
       </c>
       <c r="BE45" t="n">
-        <v>2.52</v>
+        <v>3.3</v>
       </c>
       <c r="BF45" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BG45" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BH45" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BI45" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BJ45" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BK45" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46">
@@ -9691,7 +9691,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>3850324</v>
+        <v>3850329</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -9711,182 +9711,182 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Bayern München</t>
+          <t>Heidenheim</t>
         </is>
       </c>
       <c r="I46" t="n">
         <v>1</v>
       </c>
       <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
         <v>1</v>
       </c>
-      <c r="K46" t="n">
-        <v>2</v>
-      </c>
       <c r="L46" t="n">
         <v>2</v>
       </c>
       <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>2</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>['7', '52']</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>8</v>
+      </c>
+      <c r="R46" t="n">
         <v>5</v>
       </c>
-      <c r="N46" t="n">
+      <c r="S46" t="n">
+        <v>13</v>
+      </c>
+      <c r="T46" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U46" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V46" t="n">
+        <v>6</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA46" t="n">
         <v>7</v>
       </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>['9', '65']</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>['27', '53', '59', '74', '90+1']</t>
-        </is>
-      </c>
-      <c r="Q46" t="n">
-        <v>2</v>
-      </c>
-      <c r="R46" t="n">
-        <v>4</v>
-      </c>
-      <c r="S46" t="n">
+      <c r="AB46" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AW46" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AX46" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AY46" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ46" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="BA46" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB46" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE46" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF46" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG46" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH46" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI46" t="n">
         <v>6</v>
       </c>
-      <c r="T46" t="n">
+      <c r="BJ46" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK46" t="n">
         <v>8</v>
-      </c>
-      <c r="U46" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="V46" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W46" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="X46" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AL46" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AM46" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AN46" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO46" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AP46" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AQ46" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR46" t="n">
-        <v>3</v>
-      </c>
-      <c r="AS46" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AT46" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV46" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="AW46" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="AX46" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AY46" t="n">
-        <v>18</v>
-      </c>
-      <c r="AZ46" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="BA46" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="BB46" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="BC46" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="BD46" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="BE46" t="n">
-        <v>3</v>
-      </c>
-      <c r="BF46" t="n">
-        <v>3</v>
-      </c>
-      <c r="BG46" t="n">
-        <v>16</v>
-      </c>
-      <c r="BH46" t="n">
-        <v>6</v>
-      </c>
-      <c r="BI46" t="n">
-        <v>14</v>
-      </c>
-      <c r="BJ46" t="n">
-        <v>9</v>
-      </c>
-      <c r="BK46" t="n">
-        <v>30</v>
       </c>
     </row>
     <row r="47">
@@ -9894,7 +9894,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>3850327</v>
+        <v>3850330</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -9914,59 +9914,59 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Jahn Regensburg</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Arminia Bielefeld</t>
+          <t>Fortuna Düsseldorf</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L47" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N47" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>['20', '24', '28', '39', '52', '67']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['5', '16', '45+1']</t>
         </is>
       </c>
       <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>2</v>
+      </c>
+      <c r="S47" t="n">
         <v>7</v>
       </c>
-      <c r="R47" t="n">
-        <v>2</v>
-      </c>
-      <c r="S47" t="n">
-        <v>9</v>
-      </c>
       <c r="T47" t="n">
-        <v>1.73</v>
+        <v>3.75</v>
       </c>
       <c r="U47" t="n">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="V47" t="n">
-        <v>7.5</v>
+        <v>2.75</v>
       </c>
       <c r="W47" t="n">
         <v>1.33</v>
@@ -9975,121 +9975,121 @@
         <v>3.25</v>
       </c>
       <c r="Y47" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Z47" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AA47" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB47" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AC47" t="n">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="AD47" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="AE47" t="n">
-        <v>7</v>
+        <v>2.1</v>
       </c>
       <c r="AF47" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AG47" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH47" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AI47" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AJ47" t="n">
-        <v>1.65</v>
+        <v>1.87</v>
       </c>
       <c r="AK47" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW47" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AX47" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AY47" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AZ47" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BA47" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC47" t="n">
         <v>2.2</v>
       </c>
-      <c r="AL47" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AM47" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AN47" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AO47" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AP47" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AQ47" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR47" t="n">
-        <v>3</v>
-      </c>
-      <c r="AS47" t="n">
-        <v>3</v>
-      </c>
-      <c r="AT47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AU47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV47" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="AW47" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="AX47" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AY47" t="n">
+      <c r="BD47" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE47" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF47" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG47" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH47" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI47" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ47" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK47" t="n">
         <v>11</v>
-      </c>
-      <c r="AZ47" t="n">
-        <v>6</v>
-      </c>
-      <c r="BA47" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="BB47" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="BC47" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="BD47" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="BE47" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="BF47" t="n">
-        <v>13</v>
-      </c>
-      <c r="BG47" t="n">
-        <v>4</v>
-      </c>
-      <c r="BH47" t="n">
-        <v>5</v>
-      </c>
-      <c r="BI47" t="n">
-        <v>3</v>
-      </c>
-      <c r="BJ47" t="n">
-        <v>18</v>
-      </c>
-      <c r="BK47" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="48">
@@ -10097,7 +10097,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>3850329</v>
+        <v>3850324</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -10117,182 +10117,182 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
+          <t>Bayern München</t>
         </is>
       </c>
       <c r="I48" t="n">
         <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L48" t="n">
         <v>2</v>
       </c>
       <c r="M48" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N48" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>['7', '52']</t>
+          <t>['9', '65']</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['27', '53', '59', '74', '90+1']</t>
         </is>
       </c>
       <c r="Q48" t="n">
+        <v>2</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>6</v>
+      </c>
+      <c r="T48" t="n">
         <v>8</v>
       </c>
-      <c r="R48" t="n">
-        <v>5</v>
-      </c>
-      <c r="S48" t="n">
-        <v>13</v>
-      </c>
-      <c r="T48" t="n">
+      <c r="U48" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="V48" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="X48" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM48" t="n">
         <v>2.05</v>
       </c>
-      <c r="U48" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="V48" t="n">
+      <c r="AN48" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="AW48" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="AX48" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AY48" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ48" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BA48" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB48" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD48" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE48" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF48" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG48" t="n">
+        <v>16</v>
+      </c>
+      <c r="BH48" t="n">
         <v>6</v>
       </c>
-      <c r="W48" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="X48" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>7</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AG48" t="n">
+      <c r="BI48" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ48" t="n">
         <v>9</v>
       </c>
-      <c r="AH48" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AK48" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AL48" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AM48" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AN48" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AO48" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AP48" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AQ48" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR48" t="n">
-        <v>3</v>
-      </c>
-      <c r="AS48" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AT48" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AU48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV48" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="AW48" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="AX48" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AY48" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AZ48" t="n">
-        <v>4.68</v>
-      </c>
-      <c r="BA48" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="BB48" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="BC48" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="BD48" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="BE48" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="BF48" t="n">
-        <v>9</v>
-      </c>
-      <c r="BG48" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH48" t="n">
-        <v>11</v>
-      </c>
-      <c r="BI48" t="n">
-        <v>6</v>
-      </c>
-      <c r="BJ48" t="n">
-        <v>20</v>
-      </c>
       <c r="BK48" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49">
@@ -10300,7 +10300,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>3850330</v>
+        <v>3850327</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -10320,59 +10320,59 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Jahn Regensburg</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Fortuna Düsseldorf</t>
+          <t>Arminia Bielefeld</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
+          <t>['20', '24', '28', '39', '52', '67']</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>['5', '16', '45+1']</t>
-        </is>
-      </c>
       <c r="Q49" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R49" t="n">
         <v>2</v>
       </c>
       <c r="S49" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T49" t="n">
-        <v>3.75</v>
+        <v>1.73</v>
       </c>
       <c r="U49" t="n">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="V49" t="n">
-        <v>2.75</v>
+        <v>7.5</v>
       </c>
       <c r="W49" t="n">
         <v>1.33</v>
@@ -10381,121 +10381,121 @@
         <v>3.25</v>
       </c>
       <c r="Y49" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Z49" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AA49" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AE49" t="n">
         <v>7</v>
       </c>
-      <c r="AB49" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AC49" t="n">
+      <c r="AF49" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AP49" t="n">
         <v>3.2</v>
       </c>
-      <c r="AD49" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AE49" t="n">
+      <c r="AQ49" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AW49" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AX49" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AY49" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ49" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA49" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB49" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BC49" t="n">
         <v>2.1</v>
       </c>
-      <c r="AF49" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AK49" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AL49" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AM49" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AN49" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AO49" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AP49" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AQ49" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR49" t="n">
-        <v>3</v>
-      </c>
-      <c r="AS49" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AT49" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AU49" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AV49" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AW49" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="AX49" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="AY49" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="AZ49" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="BA49" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="BB49" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="BC49" t="n">
-        <v>2.2</v>
-      </c>
       <c r="BD49" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="BE49" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="BF49" t="n">
+        <v>13</v>
+      </c>
+      <c r="BG49" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH49" t="n">
         <v>5</v>
       </c>
-      <c r="BG49" t="n">
-        <v>9</v>
-      </c>
-      <c r="BH49" t="n">
-        <v>14</v>
-      </c>
       <c r="BI49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ49" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BK49" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50">
